--- a/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>NewReno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Vegas</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-99767600"/>
-        <c:axId val="-99767056"/>
+        <c:axId val="441292736"/>
+        <c:axId val="441305792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-99767600"/>
+        <c:axId val="441292736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99767056"/>
+        <c:crossAx val="441305792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-99767056"/>
+        <c:axId val="441305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99767600"/>
+        <c:crossAx val="441292736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-99768144"/>
-        <c:axId val="-99769232"/>
+        <c:axId val="441297088"/>
+        <c:axId val="441293280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-99768144"/>
+        <c:axId val="441297088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99769232"/>
+        <c:crossAx val="441293280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-99769232"/>
+        <c:axId val="441293280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.5"/>
@@ -1316,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99768144"/>
+        <c:crossAx val="441297088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>34.411580276400002</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.46323135848041752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.9833188289</c:v>
+                  <c:v>65.707912973399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.978499194800001</c:v>
+                  <c:v>65.678995169100006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.976570182500001</c:v>
+                  <c:v>65.667421094999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.986055020399998</c:v>
+                  <c:v>65.724048232800001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6682309469</c:v>
+                  <c:v>69.816502381999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.920269035899999</c:v>
+                  <c:v>77.329284028999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.7948696405</c:v>
+                  <c:v>70.567088541700002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2116779011</c:v>
+                  <c:v>73.075562043800005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.208402515700001</c:v>
+                  <c:v>73.0814068241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.485800000000001</c:v>
+                  <c:v>78.817333333299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.9540412737</c:v>
+                  <c:v>65.532247642499996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.957646414900001</c:v>
+                  <c:v>65.553878489300004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.9454643348</c:v>
+                  <c:v>65.479808326099999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.991021421199999</c:v>
+                  <c:v>65.752879432599997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.720943756899999</c:v>
+                  <c:v>70.132385519500005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.924928836399999</c:v>
+                  <c:v>77.359175438600005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.002035063600001</c:v>
+                  <c:v>71.751636363599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.167819819799998</c:v>
+                  <c:v>72.815720930200001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.1392940287</c:v>
+                  <c:v>72.622091324199999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.05376</c:v>
+                  <c:v>79.220571428599996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441292736"/>
-        <c:axId val="441305792"/>
+        <c:axId val="138886720"/>
+        <c:axId val="138884544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441292736"/>
+        <c:axId val="138886720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441305792"/>
+        <c:crossAx val="138884544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441305792"/>
+        <c:axId val="138884544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441292736"/>
+        <c:crossAx val="138886720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.9833188289</c:v>
+                  <c:v>65.707912973399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.978499194800001</c:v>
+                  <c:v>65.678995169100006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.976570182500001</c:v>
+                  <c:v>65.667421094999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.986055020399998</c:v>
+                  <c:v>65.724048232800001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6682309469</c:v>
+                  <c:v>69.816502381999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.920269035899999</c:v>
+                  <c:v>77.329284028999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.7948696405</c:v>
+                  <c:v>70.567088541700002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2116779011</c:v>
+                  <c:v>73.075562043800005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.208402515700001</c:v>
+                  <c:v>73.0814068241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.485800000000001</c:v>
+                  <c:v>78.817333333299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,34 +1057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.9540412737</c:v>
+                  <c:v>65.532247642499996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.957646414900001</c:v>
+                  <c:v>65.553878489300004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.9454643348</c:v>
+                  <c:v>65.479808326099999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.991021421199999</c:v>
+                  <c:v>65.752879432599997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.720943756899999</c:v>
+                  <c:v>70.132385519500005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.924928836399999</c:v>
+                  <c:v>77.359175438600005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.002035063600001</c:v>
+                  <c:v>71.751636363599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.167819819799998</c:v>
+                  <c:v>72.815720930200001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.1392940287</c:v>
+                  <c:v>72.622091324199999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.05376</c:v>
+                  <c:v>79.220571428599996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441297088"/>
-        <c:axId val="441293280"/>
+        <c:axId val="138885088"/>
+        <c:axId val="138885632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441297088"/>
+        <c:axId val="138885088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441293280"/>
+        <c:crossAx val="138885632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,10 +1211,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441293280"/>
+        <c:axId val="138885632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20.5"/>
+          <c:min val="60.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1319,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441297088"/>
+        <c:crossAx val="138885088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2845,7 +2845,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20.9833188289</v>
+        <v>65.707912973399999</v>
       </c>
       <c r="C2" s="1">
-        <v>20.9540412737</v>
+        <v>65.532247642499996</v>
       </c>
       <c r="D2" s="1">
         <v>22.391183673499999</v>
@@ -2884,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20.978499194800001</v>
+        <v>65.678995169100006</v>
       </c>
       <c r="C3" s="1">
-        <v>20.957646414900001</v>
+        <v>65.553878489300004</v>
       </c>
       <c r="D3" s="1">
         <v>22.336299702000002</v>
@@ -2898,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20.976570182500001</v>
+        <v>65.667421094999995</v>
       </c>
       <c r="C4" s="1">
-        <v>20.9454643348</v>
+        <v>65.479808326099999</v>
       </c>
       <c r="D4" s="1">
         <v>22.3562842553</v>
@@ -2912,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20.986055020399998</v>
+        <v>65.724048232800001</v>
       </c>
       <c r="C5" s="1">
-        <v>20.991021421199999</v>
+        <v>65.752879432599997</v>
       </c>
       <c r="D5" s="1">
         <v>22.404794211500001</v>
@@ -2926,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>21.6682309469</v>
+        <v>69.816502381999996</v>
       </c>
       <c r="C6" s="1">
-        <v>21.720943756899999</v>
+        <v>70.132385519500005</v>
       </c>
       <c r="D6" s="1">
         <v>25.1994417021</v>
@@ -2940,10 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>22.920269035899999</v>
+        <v>77.329284028999993</v>
       </c>
       <c r="C7" s="1">
-        <v>22.924928836399999</v>
+        <v>77.359175438600005</v>
       </c>
       <c r="D7" s="1">
         <v>31.343939954500001</v>
@@ -2954,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21.7948696405</v>
+        <v>70.567088541700002</v>
       </c>
       <c r="C8" s="1">
-        <v>22.002035063600001</v>
+        <v>71.751636363599999</v>
       </c>
       <c r="D8" s="1">
         <v>25.8009454012</v>
@@ -2968,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>22.2116779011</v>
+        <v>73.075562043800005</v>
       </c>
       <c r="C9" s="1">
-        <v>22.167819819799998</v>
+        <v>72.815720930200001</v>
       </c>
       <c r="D9" s="1">
         <v>27.543722780700001</v>
@@ -2982,10 +2982,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>22.208402515700001</v>
+        <v>73.0814068241</v>
       </c>
       <c r="C10" s="1">
-        <v>22.1392940287</v>
+        <v>72.622091324199999</v>
       </c>
       <c r="D10" s="1">
         <v>27.572758082899998</v>
@@ -2996,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>23.485800000000001</v>
+        <v>78.817333333299999</v>
       </c>
       <c r="C11" s="2">
-        <v>23.05376</v>
+        <v>79.220571428599996</v>
       </c>
       <c r="D11" s="2">
         <v>34.411580276400002</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C15">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.46323135848041752</v>
+        <v>0.48676994735259549</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>NewReno</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Vegas</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -503,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="138886720"/>
-        <c:axId val="138884544"/>
+        <c:axId val="-1647577520"/>
+        <c:axId val="-1647572624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138886720"/>
+        <c:axId val="-1647577520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138884544"/>
+        <c:crossAx val="-1647572624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138884544"/>
+        <c:axId val="-1647572624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138886720"/>
+        <c:crossAx val="-1647577520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="138885088"/>
-        <c:axId val="138885632"/>
+        <c:axId val="-1647576432"/>
+        <c:axId val="-1647570448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138885088"/>
+        <c:axId val="-1647576432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138885632"/>
+        <c:crossAx val="-1647570448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138885632"/>
+        <c:axId val="-1647570448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60.5"/>
@@ -1319,7 +1316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138885088"/>
+        <c:crossAx val="-1647576432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3005,15 +3002,6 @@
         <v>34.411580276400002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.48676994735259549</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/LatencyGraph.xlsx
@@ -500,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1647577520"/>
-        <c:axId val="-1647572624"/>
+        <c:axId val="-796100704"/>
+        <c:axId val="-796111040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647577520"/>
+        <c:axId val="-796100704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647572624"/>
+        <c:crossAx val="-796111040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647572624"/>
+        <c:axId val="-796111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -719,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647577520"/>
+        <c:crossAx val="-796100704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -835,7 +835,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experiment 2: Latency. No CBR</a:t>
+              <a:t>Experiment 2: Latency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1097,11 +1097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1647576432"/>
-        <c:axId val="-1647570448"/>
+        <c:axId val="-796100160"/>
+        <c:axId val="-796110496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647576432"/>
+        <c:axId val="-796100160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1128,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CBR</a:t>
+                  <a:t>CBR (Mbps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1200,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647570448"/>
+        <c:crossAx val="-796110496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647570448"/>
+        <c:axId val="-796110496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60.5"/>
@@ -1316,7 +1316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647576432"/>
+        <c:crossAx val="-796100160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2549,10 +2549,10 @@
       <xdr:rowOff>99892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576303</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76840</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607039</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2841,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
